--- a/RNN_python/output_data_sarima/sarima_error_gauss1.xlsx
+++ b/RNN_python/output_data_sarima/sarima_error_gauss1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masaki/rnn_forecast/RNN_python/output_data_sarima/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB046D6-CB46-4444-90C2-381F01BDB100}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E25CF7-6345-DD41-AE9B-3B0F50FAC342}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1140" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38700" yWindow="3980" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,6 +99,1787 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="152"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="152"/>
+                <c:pt idx="0">
+                  <c:v>-50.613992503401597</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-56.698700851585357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-57.769293230601193</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-51.820299101783696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-52.369480014146909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-51.031794270662573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-51.065460292848961</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-50.959083636128668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-50.807001219186553</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-51.517850069651637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-51.362652396325373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-50.582126104234348</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-50.777875725208403</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-51.003172975105478</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-50.803733045462607</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-50.727982018001128</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-51.117381759939732</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-51.112266374404697</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-50.551267990166743</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-50.832571972505761</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-50.523533639839783</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-50.779941117783181</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-50.877160826945449</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-52.001388552344032</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-53.762148906316511</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-57.808864559533589</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-51.008689513321627</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-52.012162738896407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-51.24397479978412</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-50.715908809383627</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-50.901006319765543</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-50.669051566006168</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-51.258655278403197</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-51.199338626045858</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-51.084382329561308</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-50.937591747296757</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-51.117617708374169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-51.547236049060672</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-50.744717753424702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-50.734460057375642</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-50.898472478455773</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-51.31968817751482</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-50.867996554418824</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-50.890202366877219</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-50.867651366210673</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-51.182560107984528</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-50.645866710488519</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-51.180939337846688</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-52.248751041316488</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-54.976467930409697</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-52.583669289126497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-59.41220307469991</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-56.284230988387968</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-52.394234146936427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-52.471162354593801</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-51.582901207291343</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-54.708948441921088</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-53.483899490468247</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-51.08343201237264</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-51.40443567249195</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-51.160301087293853</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-50.757532970824343</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-51.183745195013792</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-51.551265010327029</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-50.602997681594189</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-50.696098774011332</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-50.834803047194953</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-50.644629565660281</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-50.65998315839888</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-50.770452265546851</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-51.024483984112642</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-50.707124168022119</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-50.466462598135116</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-50.658202494727448</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-50.617661749561329</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-51.23127641316642</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-50.727889860461751</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-51.267599069490849</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-50.644467154165802</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-50.77129246208375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-51.302290251874879</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-50.720466998404653</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-73.577304942217907</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-53.961956048441003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-51.204554073852997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-51.585889738770838</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-51.33696279828365</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-51.063318809034932</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-51.080130569331871</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-50.995287116817337</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-51.452710000260872</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-50.995739915969978</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-51.055386253272587</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-50.893182182506031</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-65.525861983900299</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-53.499337949714473</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-51.523637317050223</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-50.590989097903417</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-50.700077727979682</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-50.673024357083342</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-50.764863077184778</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-50.711897217487071</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-51.003773463747137</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-51.091207892236</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-50.897403837334878</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-56.01219681638527</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-50.602804318047383</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-50.641523640790943</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-50.505587909392759</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-51.098476119698027</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-50.847433880722448</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-50.768228149030143</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-50.57102767385048</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-50.943985814860817</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-53.618657801403963</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-55.827475124957033</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-51.361204595786312</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-51.045899404517868</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-50.672345441669982</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-50.655822988514281</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-51.112378754677827</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-51.057486424365308</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-50.926265595909449</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-50.815805583548581</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-50.562379550297493</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-50.856510687907033</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-50.695114528743872</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-50.673683964590779</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-50.614551495372162</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-50.860172988539837</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-52.35287443332443</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-51.095080091277133</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-50.847703712977953</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-50.948662599758428</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-50.738608530934833</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-50.889985286164347</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-51.000438491910479</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-50.57364332655915</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-50.936701442590071</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-50.672917003421951</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-50.594751431973087</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-52.303664342438168</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-51.616169990032724</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-50.924202087519546</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-51.08483972412612</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-52.042413780604093</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-52.582132415286317</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-50.794804645699877</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-51.136423985320057</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-53.323409679351691</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-50.740539208694322</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-50.561680293768923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96E4-BC4F-8AB9-1019127D443D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1968752687"/>
+        <c:axId val="1948658831"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1968752687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1948658831"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1948658831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1968752687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46FA4FEC-5E33-DB47-95F3-CDF07431FADF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -389,7 +2170,7 @@
   <dimension ref="A1:B153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="A2" sqref="A1:B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1618,5 +3399,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>